--- a/fMRI experiment/psychopy code/question_instructions.xlsx
+++ b/fMRI experiment/psychopy code/question_instructions.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
@@ -12,21 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>instructText</t>
   </si>
   <si>
-    <t>In this last part of the experiment, please answer 8 questions about each story.</t>
+    <t>In the final part of the experiment, please answer 8 questions about each story.</t>
   </si>
   <si>
-    <t>Some of the questions are not related to the perspective you were asked to assume.</t>
+    <t>We did not tell you to think of all or some of these questions during the story, but please do your best to answer them.</t>
   </si>
   <si>
-    <t>We realize that we did not tell you to think of these questions during the story, but please do your best to answer them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please answer as much as you remember, and be specific and concrete in your answers. It is best to try to be as faithful as possible to what the story actually said.
+    <t xml:space="preserve">Answer as much as you remember, and be specific and concrete in your answers. It is best to try to be as faithful as possible to what the story actually said.
 </t>
   </si>
   <si>
@@ -218,28 +214,28 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1328,19 +1324,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1366,7 +1356,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="80.05" customHeight="1">
+    <row r="3" ht="104.05" customHeight="1">
       <c r="A3" t="s" s="7">
         <v>2</v>
       </c>
@@ -1388,7 +1378,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="104.05" customHeight="1">
+    <row r="5" ht="92.05" customHeight="1">
       <c r="A5" t="s" s="7">
         <v>4</v>
       </c>
@@ -1399,10 +1389,8 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="92.05" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>5</v>
-      </c>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="10"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1572,15 +1560,6 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
